--- a/DataManipulationVisualisation/data/forest_understory/Axmanova-Forest-understory-diversity-analyses.xlsx
+++ b/DataManipulationVisualisation/data/forest_understory/Axmanova-Forest-understory-diversity-analyses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/116967_muni_cz/Documents/Shared/Teaching_CommunityDataAnalysis/2023/data/Forest-understory-diversity_IA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IA\VYUKA\BotzoolDataAnalysis\DataManipulationVisualisation\data\forest_understory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{FB1012B7-04BC-4653-8279-C7BA78223BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1369A6F-7BA2-48DE-BFB8-155CA4F67061}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4961F8-14D7-4FF5-88A3-68E2D570DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB3E86A8-AE6E-43EF-A46A-05DF8320AAA3}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>EIV_moisture</t>
   </si>
   <si>
-    <t>EIV_soil-reaction</t>
-  </si>
-  <si>
     <t>EIV_nutrients</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>alluvial forest</t>
+  </si>
+  <si>
+    <t>EIV_soilreaction</t>
   </si>
 </sst>
 </file>
@@ -171,14 +171,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532CC0AF-E819-40AF-A174-977510CE6AB9}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -487,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -541,13 +539,13 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -558,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -626,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -694,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -762,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -830,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -898,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -966,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -1034,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>21</v>
@@ -1102,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1170,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -1238,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1306,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>30</v>
@@ -1374,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -1442,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -1510,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -1578,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1646,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1714,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>26</v>
@@ -1782,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1850,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1918,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1986,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>19</v>
@@ -2054,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -2122,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -2190,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>34</v>
@@ -2258,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>31</v>
@@ -2326,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -2394,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>32</v>
@@ -2462,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>34</v>
@@ -2530,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -2598,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2666,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>18</v>
@@ -2734,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>18</v>
@@ -2802,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -2870,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>37</v>
@@ -2938,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -3006,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -3074,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>12</v>
@@ -3142,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -3210,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -3278,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>28</v>
@@ -3346,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>25</v>
@@ -3414,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>37</v>
@@ -3482,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>26</v>
@@ -3550,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>32</v>
@@ -3618,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47">
         <v>37</v>
@@ -3686,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -3754,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>23</v>
@@ -3822,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -3890,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>31</v>
@@ -3958,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -4026,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>63</v>
@@ -4094,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>36</v>
@@ -4162,7 +4160,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>30</v>
@@ -4230,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>29</v>
@@ -4298,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>34</v>
@@ -4366,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>34</v>
@@ -4434,7 +4432,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <v>25</v>
@@ -4502,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>27</v>
@@ -4570,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61">
         <v>53</v>
@@ -4638,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>20</v>
@@ -4706,7 +4704,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>31</v>
@@ -4774,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>18</v>
@@ -4842,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65">
         <v>59</v>
@@ -4910,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66">
         <v>60</v>
